--- a/Templates/PublisherLoginDetails_1.xlsx
+++ b/Templates/PublisherLoginDetails_1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t xml:space="preserve">Email ID</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t xml:space="preserve">40112211521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
   </si>
 </sst>
 </file>
@@ -413,8 +416,8 @@
       <c r="U2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="1" t="n">
-        <v>0</v>
+      <c r="V2" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Templates/PublisherLoginDetails_1.xlsx
+++ b/Templates/PublisherLoginDetails_1.xlsx
@@ -270,7 +270,7 @@
   <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -352,7 +352,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>

--- a/Templates/PublisherLoginDetails_1.xlsx
+++ b/Templates/PublisherLoginDetails_1.xlsx
@@ -88,25 +88,25 @@
     <t xml:space="preserve">Lic Selection(0-Gold, 1-Silver)</t>
   </si>
   <si>
-    <t xml:space="preserve">abcd@gmail.com</t>
+    <t xml:space="preserve">asgfd@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">123456</t>
   </si>
   <si>
-    <t xml:space="preserve">KhatriInvestorsPvtLtd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KhatriInv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAAPG8510J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86-2255128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAFD57874A</t>
+    <t xml:space="preserve">NewInvestor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InvNew12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAAPG5510J</t>
+  </si>
+  <si>
+    <t xml:space="preserve">86-2355128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAFF58874A</t>
   </si>
   <si>
     <t xml:space="preserve">Private limited</t>
@@ -133,10 +133,10 @@
     <t xml:space="preserve">Mumbai</t>
   </si>
   <si>
-    <t xml:space="preserve">Khatri Investors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3606222200010</t>
+    <t xml:space="preserve">New Investors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3606222200020</t>
   </si>
   <si>
     <t xml:space="preserve">ICICI Bank Ltd</t>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">Byculla Branch</t>
   </si>
   <si>
-    <t xml:space="preserve">ICIB0000052</t>
+    <t xml:space="preserve">ICIB0000152</t>
   </si>
   <si>
     <t xml:space="preserve">40112211521</t>
@@ -269,8 +269,8 @@
   </sheetPr>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V2" activeCellId="0" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -352,7 +352,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -422,7 +422,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="abcd@gmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="asgfd@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
